--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32422-d84012-Reviews-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Near-StubHub-Center.h168147.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529205055892&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=741bd7cf-f727-4bcc-bb70-0bdbd81c0774&amp;mctc=9&amp;exp_dp=92.65&amp;exp_ts=1529205056396&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,559 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r493705963-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>32422</t>
+  </si>
+  <si>
+    <t>84012</t>
+  </si>
+  <si>
+    <t>493705963</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>I liked staying there</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights for business.  Nothing fancy but quite decent inn for the price.  Staff are friendly.  Continental breakfast is ready at 6:30 am.  Quiet at night was good for me.  I didn't use but there is a swimming pool.  It should be good for family traveler.  ビジネスで3泊しました。特にお洒落なものも無いINNタイプの施設です。ホテルのスタッフはフレンドリー。朝食は6:30から食べられます。夜は静かで良かったです。私は使いませんでしたが、プールがあるので家族で旅行される方には良いと思います。</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r447864784-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>447864784</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Budget friendly over night stay with kids</t>
+  </si>
+  <si>
+    <t>We were just looking for a safe, clean place to stay cheap while we went to Universal Studios, and that's what we got.  Room was clean and actually quite nice. We thought the beds were hard, but they were very nice and the firmness was just a personal preference. The area was mostly quiet. Breakfast was awful - sugary packaged pastries, toast and the standard waffle maker, OJ and coffee.  It would have made a huge difference to have bagels and cereal, but it was free and at least got us on the road. Would probably look somewhere else for a better breakfast, but if that's not what you're interested in, this place was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We were just looking for a safe, clean place to stay cheap while we went to Universal Studios, and that's what we got.  Room was clean and actually quite nice. We thought the beds were hard, but they were very nice and the firmness was just a personal preference. The area was mostly quiet. Breakfast was awful - sugary packaged pastries, toast and the standard waffle maker, OJ and coffee.  It would have made a huge difference to have bagels and cereal, but it was free and at least got us on the road. Would probably look somewhere else for a better breakfast, but if that's not what you're interested in, this place was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r446093033-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>446093033</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>OK Place....if your not expecting a lot</t>
+  </si>
+  <si>
+    <t>I stayed in the top floor room in the far back. The front desk guy said it was the quietest room, yet you do get traffic noise even here.  
+  When walking to the room I thought uh oh, way back here and in the very back corner I worried the internet would not work but it works just fine even here.
+  The room was large, also has a microwave, mini fridge, full size ironing board, iron, and a table and four chairs. Lots of floor space too.
+   The bed looks like a King, was firm, and I slept well on it.
+    There is more than enough parking now, but the hotel isnt full. 
+    There is a small pool in back, but its Dec and raining so nobody is there.
+    Breakfast had coffee, make your own waffles, Orange juice and individually packaged sweet rolls. Nothing else. No eggs, fruit, milk. People were asking for milk for kids but none. Creamer just the powder and only regular sugar.  Diabetics
+wont find much to eat here.
+    I dont expect much from cheap hotels, so in that regard I rate this average. No horror stories to report and no dangerous types lurking.  Its in an average area and services and stores and restaurants are located in all directions.
+   There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its...I stayed in the top floor room in the far back. The front desk guy said it was the quietest room, yet you do get traffic noise even here.    When walking to the room I thought uh oh, way back here and in the very back corner I worried the internet would not work but it works just fine even here.  The room was large, also has a microwave, mini fridge, full size ironing board, iron, and a table and four chairs. Lots of floor space too.   The bed looks like a King, was firm, and I slept well on it.    There is more than enough parking now, but the hotel isnt full.     There is a small pool in back, but its Dec and raining so nobody is there.    Breakfast had coffee, make your own waffles, Orange juice and individually packaged sweet rolls. Nothing else. No eggs, fruit, milk. People were asking for milk for kids but none. Creamer just the powder and only regular sugar.  Diabeticswont find much to eat here.    I dont expect much from cheap hotels, so in that regard I rate this average. No horror stories to report and no dangerous types lurking.  Its in an average area and services and stores and restaurants are located in all directions.   There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its by the elevator too.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed in the top floor room in the far back. The front desk guy said it was the quietest room, yet you do get traffic noise even here.  
+  When walking to the room I thought uh oh, way back here and in the very back corner I worried the internet would not work but it works just fine even here.
+  The room was large, also has a microwave, mini fridge, full size ironing board, iron, and a table and four chairs. Lots of floor space too.
+   The bed looks like a King, was firm, and I slept well on it.
+    There is more than enough parking now, but the hotel isnt full. 
+    There is a small pool in back, but its Dec and raining so nobody is there.
+    Breakfast had coffee, make your own waffles, Orange juice and individually packaged sweet rolls. Nothing else. No eggs, fruit, milk. People were asking for milk for kids but none. Creamer just the powder and only regular sugar.  Diabetics
+wont find much to eat here.
+    I dont expect much from cheap hotels, so in that regard I rate this average. No horror stories to report and no dangerous types lurking.  Its in an average area and services and stores and restaurants are located in all directions.
+   There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its...I stayed in the top floor room in the far back. The front desk guy said it was the quietest room, yet you do get traffic noise even here.    When walking to the room I thought uh oh, way back here and in the very back corner I worried the internet would not work but it works just fine even here.  The room was large, also has a microwave, mini fridge, full size ironing board, iron, and a table and four chairs. Lots of floor space too.   The bed looks like a King, was firm, and I slept well on it.    There is more than enough parking now, but the hotel isnt full.     There is a small pool in back, but its Dec and raining so nobody is there.    Breakfast had coffee, make your own waffles, Orange juice and individually packaged sweet rolls. Nothing else. No eggs, fruit, milk. People were asking for milk for kids but none. Creamer just the powder and only regular sugar.  Diabeticswont find much to eat here.    I dont expect much from cheap hotels, so in that regard I rate this average. No horror stories to report and no dangerous types lurking.  Its in an average area and services and stores and restaurants are located in all directions.   There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its by the elevator too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r383450319-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>383450319</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>In the heart of LA</t>
+  </si>
+  <si>
+    <t>We were two families travelling from IN to LA visiting Disney, Universal Studios and other attractions. This place was almost at the center of both the attractions and hence the choice.The place is cosy - dated to be precise. It has those huge old TV sets and the furniture also seems dated. The first night was good, but the second night was a nightmare! Some one had arranged a party on the floor below us and had loud music all night long. We could also smell weed in the air. We called thrice at the reception to take care of this. To our surprise, the lady said that if we were so disturbed by the sounds, why don't we call 911! The hotel can not take care of all of it's patrons.The good part was a healthy unlimited breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We were two families travelling from IN to LA visiting Disney, Universal Studios and other attractions. This place was almost at the center of both the attractions and hence the choice.The place is cosy - dated to be precise. It has those huge old TV sets and the furniture also seems dated. The first night was good, but the second night was a nightmare! Some one had arranged a party on the floor below us and had loud music all night long. We could also smell weed in the air. We called thrice at the reception to take care of this. To our surprise, the lady said that if we were so disturbed by the sounds, why don't we call 911! The hotel can not take care of all of it's patrons.The good part was a healthy unlimited breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r381578259-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>381578259</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Quiet stay</t>
+  </si>
+  <si>
+    <t>Place was in ver quiet and safe looking area. No noises in evening or during the night. Lots of fastfoods around  , plus many good restaurants too manily asian , hawaian but still good quality for reasonable prices, in some was needed reservation before.Rooms have been clean ,just little bit smelly probably from smoking.The card was not working every day so we needed to renew it every day.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r359056642-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>359056642</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>Stayed two nights at the Rodeway. This is definitely a budget motel. The room was clean. It seemed like there were minor updates made recently. Unfortunately it had a mild lingering smell of cigarette. It's a hard smell to get rid of. The room offered a fridge which was convenient and the breakfast in the morning was enough to get us started for the day. Keep in mind this is a motel and the offerings are simple;  toast, packaged danishes, juice, fresh waffles and fruit. The downside was the other guests. Our neighbors had their television way too loud and kids playing and shouting after midnight, adults talking outside our door. This was both nights so I got almost no sleep.  This was our fourth motel during this trip and the worst because of the noise. For light sleepers it would be better to stay elsewhere. If you sleep like a rock or are a late owl a stay at this motel will be easy on the wallet. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed two nights at the Rodeway. This is definitely a budget motel. The room was clean. It seemed like there were minor updates made recently. Unfortunately it had a mild lingering smell of cigarette. It's a hard smell to get rid of. The room offered a fridge which was convenient and the breakfast in the morning was enough to get us started for the day. Keep in mind this is a motel and the offerings are simple;  toast, packaged danishes, juice, fresh waffles and fruit. The downside was the other guests. Our neighbors had their television way too loud and kids playing and shouting after midnight, adults talking outside our door. This was both nights so I got almost no sleep.  This was our fourth motel during this trip and the worst because of the noise. For light sleepers it would be better to stay elsewhere. If you sleep like a rock or are a late owl a stay at this motel will be easy on the wallet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r312712163-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>312712163</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Good hotel - Not far from Airport</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel.  The location is not far from the LAX airport.  Room was comfortable and breakfast was simple but ok.  Hot waffle machine is about the only thing worth going for, except fruit.  Staff is ok.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r303924706-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>303924706</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>3 days  stay at the Rodeway Inn in Gardena</t>
+  </si>
+  <si>
+    <t>The location is just less than 5 minutes away  to our business on call contacts which is good.
+The room has all the amenities needed like refrigerator, microwave tv and kept clean.
+Upon checking in  at 3PM August 18, There were 2 persons at the desk. My husband and I were the only customers but neither one of them said a word. I have to say "Good afternoon, we are checking in"  I presume, the young girl working on the computer who never bothered to look up, is the receptionist/manager and is training the young man who is standing up who at least smiled and responded to our greetings.. He was told by the girl to give us this form to fill out and when he asked how we are going to pay, I told him that we have already booked and paid by phone.  Then only the girl stopped what she was doing with the computer and checked our reservation and not even looking at us, told the guy to let me sign a form and give the key. She didn't bother to check that we had two reservation for 3 days and sure enough, at 11 AM the following day, August 19, the guy called us that it is time to check out. When I told him that we booked until August 20, leaving on 21st, he told me to come down and sign another paper.
+Around 6:40...The location is just less than 5 minutes away  to our business on call contacts which is good.The room has all the amenities needed like refrigerator, microwave tv and kept clean.Upon checking in  at 3PM August 18, There were 2 persons at the desk. My husband and I were the only customers but neither one of them said a word. I have to say "Good afternoon, we are checking in"  I presume, the young girl working on the computer who never bothered to look up, is the receptionist/manager and is training the young man who is standing up who at least smiled and responded to our greetings.. He was told by the girl to give us this form to fill out and when he asked how we are going to pay, I told him that we have already booked and paid by phone.  Then only the girl stopped what she was doing with the computer and checked our reservation and not even looking at us, told the guy to let me sign a form and give the key. She didn't bother to check that we had two reservation for 3 days and sure enough, at 11 AM the following day, August 19, the guy called us that it is time to check out. When I told him that we booked until August 20, leaving on 21st, he told me to come down and sign another paper.Around 6:40 AM on the 21st, Friday, I decided to take advantage of the "free breakfast"  which is a good idea except the apples are old and have rotten spots. and again I have to greet that same girl who has just finished refilling the coffee and going behind the desk. Mind you, this is a very small lobby and there is no way you can miss another person who enters the room. Compared to other Inns and hotesl I have been, this is a very unwelcoming receptionist/ manager. Best way to lose a business. The safety latch is broken and the phone # 308 is not in cornjunction with the room # .309For 2 occupants reservation there was only one tiny bottle of shampoo.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The location is just less than 5 minutes away  to our business on call contacts which is good.
+The room has all the amenities needed like refrigerator, microwave tv and kept clean.
+Upon checking in  at 3PM August 18, There were 2 persons at the desk. My husband and I were the only customers but neither one of them said a word. I have to say "Good afternoon, we are checking in"  I presume, the young girl working on the computer who never bothered to look up, is the receptionist/manager and is training the young man who is standing up who at least smiled and responded to our greetings.. He was told by the girl to give us this form to fill out and when he asked how we are going to pay, I told him that we have already booked and paid by phone.  Then only the girl stopped what she was doing with the computer and checked our reservation and not even looking at us, told the guy to let me sign a form and give the key. She didn't bother to check that we had two reservation for 3 days and sure enough, at 11 AM the following day, August 19, the guy called us that it is time to check out. When I told him that we booked until August 20, leaving on 21st, he told me to come down and sign another paper.
+Around 6:40...The location is just less than 5 minutes away  to our business on call contacts which is good.The room has all the amenities needed like refrigerator, microwave tv and kept clean.Upon checking in  at 3PM August 18, There were 2 persons at the desk. My husband and I were the only customers but neither one of them said a word. I have to say "Good afternoon, we are checking in"  I presume, the young girl working on the computer who never bothered to look up, is the receptionist/manager and is training the young man who is standing up who at least smiled and responded to our greetings.. He was told by the girl to give us this form to fill out and when he asked how we are going to pay, I told him that we have already booked and paid by phone.  Then only the girl stopped what she was doing with the computer and checked our reservation and not even looking at us, told the guy to let me sign a form and give the key. She didn't bother to check that we had two reservation for 3 days and sure enough, at 11 AM the following day, August 19, the guy called us that it is time to check out. When I told him that we booked until August 20, leaving on 21st, he told me to come down and sign another paper.Around 6:40 AM on the 21st, Friday, I decided to take advantage of the "free breakfast"  which is a good idea except the apples are old and have rotten spots. and again I have to greet that same girl who has just finished refilling the coffee and going behind the desk. Mind you, this is a very small lobby and there is no way you can miss another person who enters the room. Compared to other Inns and hotesl I have been, this is a very unwelcoming receptionist/ manager. Best way to lose a business. The safety latch is broken and the phone # 308 is not in cornjunction with the room # .309For 2 occupants reservation there was only one tiny bottle of shampoo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r298383830-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>298383830</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I traveled on business, and stayed for two nights. Nice room with comfortable accommodations.  Bed and sheets were clean and comfy. The WiFi worked great and morning coffee and sweet roll was perfect. Staff was friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r265508264-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>265508264</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff were helpful and friendly and were accommodating with a booking muck up. Breakfast is good and rooms are cleaned every day with fresh towels. Only complaint was we had a non smoking room and it smelt strongly of smoke. The wifi was good too. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r237355075-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>237355075</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great choice, great price, close to everything  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here after a lot of research about the zone, location, and proximity to most of the things we wanted to do and places we wanted to go. We loved the closeness to main attractions in LA, very close to several freeways, great price, good complimentary breakfast, free internet access, a large parking lot, nice pool, very comfortable bed and pillows, clean everywhere you look at, anyway, congrats to the staff and manager. Thumbs up </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r236179196-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>236179196</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>One of the worst stinkiest hotel you can sleep at!</t>
+  </si>
+  <si>
+    <t>We only stayed here because it's near an examination centre for USMLE. Bad neighborhood, bad rooms, and terrible breakfast. Only serving high sugar junk food. Oh and if you mention it the answer will be this is a "complimentary " breakfast. What sort of an answer is this!Cleanliness: no such thing. The rooms are filthy and the bathroom has a smell of urine all over the place. The sad thing is that I'm not the only one writing about this smell and of course the poor greedy management is not doing anything about it.Bottom line is, don't stay here unless you were on the sidewalk with no other choice or you were suffering from a disease that'll prevent you from smelling all the "aromas" in the air.MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed here because it's near an examination centre for USMLE. Bad neighborhood, bad rooms, and terrible breakfast. Only serving high sugar junk food. Oh and if you mention it the answer will be this is a "complimentary " breakfast. What sort of an answer is this!Cleanliness: no such thing. The rooms are filthy and the bathroom has a smell of urine all over the place. The sad thing is that I'm not the only one writing about this smell and of course the poor greedy management is not doing anything about it.Bottom line is, don't stay here unless you were on the sidewalk with no other choice or you were suffering from a disease that'll prevent you from smelling all the "aromas" in the air.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r220376488-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>220376488</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Good location for beaches, too far from LA, carpet filthy</t>
+  </si>
+  <si>
+    <t>We had mixed opinions on this hotel.  The biggest issue was the carpet was filthy.  It's the first time I've ever seen carpet so dirty.  I had bought some brand new socks and they were almost black and it didn't come out in the wash.  Yuk!  The reception staff was very nice.  The breakfast area was tiny, with only 3 tables.  And there was no one to keep it clean and orderly.  The floor was all sticky from a spilled drink or food.  Fortunately people got up to give us their table or we would have been eating standing up, which isn't easy to do with young children including a baby.The location was good for Hermosa and Manhattan beaches.  But we made the trip up to Santa Monica and Pasadena and hollywood and was stuck in lots of traffic.  If you're primarily going to the beaches then it's ok but if you want to visit up north I'd get a hotel up north to save 2+ hours of commute each day.There were lots of asian restaurants nearby, korean, vietnamese, etc.  There is a dollar store with groceries just a couple minute walk and the neighborhood was not dangerous (I walked to the store with my daughter at night without any worries).  Overall I'd give the hotel a 3* if the carpet wasn't so dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We had mixed opinions on this hotel.  The biggest issue was the carpet was filthy.  It's the first time I've ever seen carpet so dirty.  I had bought some brand new socks and they were almost black and it didn't come out in the wash.  Yuk!  The reception staff was very nice.  The breakfast area was tiny, with only 3 tables.  And there was no one to keep it clean and orderly.  The floor was all sticky from a spilled drink or food.  Fortunately people got up to give us their table or we would have been eating standing up, which isn't easy to do with young children including a baby.The location was good for Hermosa and Manhattan beaches.  But we made the trip up to Santa Monica and Pasadena and hollywood and was stuck in lots of traffic.  If you're primarily going to the beaches then it's ok but if you want to visit up north I'd get a hotel up north to save 2+ hours of commute each day.There were lots of asian restaurants nearby, korean, vietnamese, etc.  There is a dollar store with groceries just a couple minute walk and the neighborhood was not dangerous (I walked to the store with my daughter at night without any worries).  Overall I'd give the hotel a 3* if the carpet wasn't so dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r213983249-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>213983249</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Great Week Stay For Traveling Youth Sports Team</t>
+  </si>
+  <si>
+    <t>Just completed a 6 night stay here with a youth sports team in town for the AYSO Nationals soccer. The rooms were clean, free breakfast was a plus especially the waffle makers. The hotel staff were very friendly and the manager bent over backwards to accommodate us. Not only are the rooms very affordable they have some of the best firm mattress beds that I have slept in. Additionally, the location is prime in that you are close to all the attractions in L.A. and the beach is a hop skip and a jump away. Efrain works very hard and the company is lucky to have him managing there property. Thanks Mr. Ovalle and thanks for making a bunch of 9 year old soccer players and their families happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just completed a 6 night stay here with a youth sports team in town for the AYSO Nationals soccer. The rooms were clean, free breakfast was a plus especially the waffle makers. The hotel staff were very friendly and the manager bent over backwards to accommodate us. Not only are the rooms very affordable they have some of the best firm mattress beds that I have slept in. Additionally, the location is prime in that you are close to all the attractions in L.A. and the beach is a hop skip and a jump away. Efrain works very hard and the company is lucky to have him managing there property. Thanks Mr. Ovalle and thanks for making a bunch of 9 year old soccer players and their families happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r205728824-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>205728824</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Great staff &amp; large room</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in April. A lot of people mentioned that it's a bad area but we had no problems at all. The staff where extremely helpful and the rooms very large for our family of four. Loved that it had a lift so we didn't have to lug our luggage up stairs. Breakfast was waffles, sweet buns, coffee, toast. For the price would defiantly stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181734259-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181734259</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>I keep coming back.</t>
+  </si>
+  <si>
+    <t>I had originally stayed at a Comfort inn in the same city. wow talk about a big change. I was so happy I never return to that place, is filthy and with a very strange activities going on there. I accidently came across this hotel(Rodeway Inn). I often travel to the US for business, it is very close to the airport. staffs are always great and willingly helping out any tourist. The exceed expectations. Down side, very poor breakfast, some of the rooms need some remodeling, AND PLEASE PUT SOME FLAT SCREEN TVS come on people invest some Money don't be CHEAP!I still come back , because of the great staffs and reasonable area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>EFRAIN O, General Manager at Rodeway Inn Near Stubhub Center, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>I had originally stayed at a Comfort inn in the same city. wow talk about a big change. I was so happy I never return to that place, is filthy and with a very strange activities going on there. I accidently came across this hotel(Rodeway Inn). I often travel to the US for business, it is very close to the airport. staffs are always great and willingly helping out any tourist. The exceed expectations. Down side, very poor breakfast, some of the rooms need some remodeling, AND PLEASE PUT SOME FLAT SCREEN TVS come on people invest some Money don't be CHEAP!I still come back , because of the great staffs and reasonable area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181540990-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181540990</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>MIXED EMOTIONS!</t>
+  </si>
+  <si>
+    <t>Long time visitor to this hotel.Have always experienced very good service with an extremely friendly and helpful staff.  Quality of rooms has slipped, greatly. Very dark now. Mattress was enclosed in plastic.  How cheap can you get!?!  Makes for very bad sleeping!  Plumbing was absolutely terrible. Plugs in sink and tub did not function  Hot and cold water reversed.  Needs on-site professional to perform some of these things and invest in better decor. Too expensive for plastic on mattress.  Nothing for breakfast but, an assortment of breads, no one shopped! Close to all modes of transportation.CAMERA NOT RETURNED LEFT IN ROOM!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>EFRAIN O, General Manager at Rodeway Inn Near Stubhub Center, responded to this reviewResponded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Long time visitor to this hotel.Have always experienced very good service with an extremely friendly and helpful staff.  Quality of rooms has slipped, greatly. Very dark now. Mattress was enclosed in plastic.  How cheap can you get!?!  Makes for very bad sleeping!  Plumbing was absolutely terrible. Plugs in sink and tub did not function  Hot and cold water reversed.  Needs on-site professional to perform some of these things and invest in better decor. Too expensive for plastic on mattress.  Nothing for breakfast but, an assortment of breads, no one shopped! Close to all modes of transportation.CAMERA NOT RETURNED LEFT IN ROOM!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181407487-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181407487</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Helpful Staff</t>
+  </si>
+  <si>
+    <t>Long time visitor to this hotel. Have always experienced very good service with an extremely friendly and helpful staff. Rooms were kept clean and well stocked. Location and access to freeways is very good and the morning breakfast is a welcome addition. Very good value for the cost. Highly recommend to the traveler who wants the basics well provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>EFRAIN O, General Manager at Rodeway Inn Near Stubhub Center, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Long time visitor to this hotel. Have always experienced very good service with an extremely friendly and helpful staff. Rooms were kept clean and well stocked. Location and access to freeways is very good and the morning breakfast is a welcome addition. Very good value for the cost. Highly recommend to the traveler who wants the basics well provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r133725237-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>133725237</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Quick Trip</t>
+  </si>
+  <si>
+    <t>We had a Dr. Appointment in LA and decided to spend the night.  We found the Hotel online and the price was competitive with others in the area.  I was a little concerned that there were no recent reviews, but the reviews were positive.  When we arrived the person at the fron desk was very friendly and helpful.  That was the highpoint of the stay.  The room we booked was listed as 2 queen beds, but the beds were a little small for queen size and were VERY firm.  Each bed had 2 half-size pillows. The carpets in the room were sticky.  Breakfast offerings were toast, waffles, coffee and orange juice.  I would spend an extra $10 to $20 and book something else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We had a Dr. Appointment in LA and decided to spend the night.  We found the Hotel online and the price was competitive with others in the area.  I was a little concerned that there were no recent reviews, but the reviews were positive.  When we arrived the person at the fron desk was very friendly and helpful.  That was the highpoint of the stay.  The room we booked was listed as 2 queen beds, but the beds were a little small for queen size and were VERY firm.  Each bed had 2 half-size pillows. The carpets in the room were sticky.  Breakfast offerings were toast, waffles, coffee and orange juice.  I would spend an extra $10 to $20 and book something else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r115605909-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>115605909</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>good hotel... bad location if you don't have a car</t>
+  </si>
+  <si>
+    <t>My hubby and I stayed here in 2010 after having a lot of trouble deciding on LA accommodation, being backpackers we didn't want to spend much.
+We booked the Rodeway Inn as the reviews generally were quite positive and we thought it looked to be close to the airport. 
+Soooo, it was kinda close to the airport (but still took ages to get there so cost a fair but), but not the city, or public transport! 
+We worked out that the nearest train station was around 3.1 miles (around 5kms) from here so we walked rather than catching a cab (there were supposed to be busses but we didnt see one at all - apparently the busses in Gardena are useless) as we were heading for Disneyland. we caught the train as far as we could and then a bus to Anaheim - around 1.5 hours on the bus! After a great day at Disneyland, a bus and train later we arrived back at the train station and decided to walk back to the hotel. it was dark - so this was a terrible decision, I was sure that we weren't going to make it back alive!! We did though. 
+The next day we caught the train into Hollywood Boulevard and then to Dodgers stadium - great experience, don't miss the baseball! This time we just caught a taxi the whole way back to the Rodeway. 
+We'd hoped to head...My hubby and I stayed here in 2010 after having a lot of trouble deciding on LA accommodation, being backpackers we didn't want to spend much.We booked the Rodeway Inn as the reviews generally were quite positive and we thought it looked to be close to the airport. Soooo, it was kinda close to the airport (but still took ages to get there so cost a fair but), but not the city, or public transport! We worked out that the nearest train station was around 3.1 miles (around 5kms) from here so we walked rather than catching a cab (there were supposed to be busses but we didnt see one at all - apparently the busses in Gardena are useless) as we were heading for Disneyland. we caught the train as far as we could and then a bus to Anaheim - around 1.5 hours on the bus! After a great day at Disneyland, a bus and train later we arrived back at the train station and decided to walk back to the hotel. it was dark - so this was a terrible decision, I was sure that we weren't going to make it back alive!! We did though. The next day we caught the train into Hollywood Boulevard and then to Dodgers stadium - great experience, don't miss the baseball! This time we just caught a taxi the whole way back to the Rodeway. We'd hoped to head to Santa Monica or Venice Beach on our last day but it was gonna take much too long to to get there via public transport (2 hours +) and cost too much in a cab, so we just waled around the Gardena area for the morning (not much to see really!). I should also mention that the location wasn't particularly safe, Gardena is next door to Compton ('Boys in the Hood' territory) therefore I really didn't feel safe walking around day or night. I did feel relatively safe at the Hotel though. In summary,the rooms were quite okay, the staff friendly and the breakfast great (waffle maker!!). However I would not possibly stay here again unless I had a car to get around. We were glad to be flying out to Vancouver after 3 nights and 2.5 days in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>My hubby and I stayed here in 2010 after having a lot of trouble deciding on LA accommodation, being backpackers we didn't want to spend much.
+We booked the Rodeway Inn as the reviews generally were quite positive and we thought it looked to be close to the airport. 
+Soooo, it was kinda close to the airport (but still took ages to get there so cost a fair but), but not the city, or public transport! 
+We worked out that the nearest train station was around 3.1 miles (around 5kms) from here so we walked rather than catching a cab (there were supposed to be busses but we didnt see one at all - apparently the busses in Gardena are useless) as we were heading for Disneyland. we caught the train as far as we could and then a bus to Anaheim - around 1.5 hours on the bus! After a great day at Disneyland, a bus and train later we arrived back at the train station and decided to walk back to the hotel. it was dark - so this was a terrible decision, I was sure that we weren't going to make it back alive!! We did though. 
+The next day we caught the train into Hollywood Boulevard and then to Dodgers stadium - great experience, don't miss the baseball! This time we just caught a taxi the whole way back to the Rodeway. 
+We'd hoped to head...My hubby and I stayed here in 2010 after having a lot of trouble deciding on LA accommodation, being backpackers we didn't want to spend much.We booked the Rodeway Inn as the reviews generally were quite positive and we thought it looked to be close to the airport. Soooo, it was kinda close to the airport (but still took ages to get there so cost a fair but), but not the city, or public transport! We worked out that the nearest train station was around 3.1 miles (around 5kms) from here so we walked rather than catching a cab (there were supposed to be busses but we didnt see one at all - apparently the busses in Gardena are useless) as we were heading for Disneyland. we caught the train as far as we could and then a bus to Anaheim - around 1.5 hours on the bus! After a great day at Disneyland, a bus and train later we arrived back at the train station and decided to walk back to the hotel. it was dark - so this was a terrible decision, I was sure that we weren't going to make it back alive!! We did though. The next day we caught the train into Hollywood Boulevard and then to Dodgers stadium - great experience, don't miss the baseball! This time we just caught a taxi the whole way back to the Rodeway. We'd hoped to head to Santa Monica or Venice Beach on our last day but it was gonna take much too long to to get there via public transport (2 hours +) and cost too much in a cab, so we just waled around the Gardena area for the morning (not much to see really!). I should also mention that the location wasn't particularly safe, Gardena is next door to Compton ('Boys in the Hood' territory) therefore I really didn't feel safe walking around day or night. I did feel relatively safe at the Hotel though. In summary,the rooms were quite okay, the staff friendly and the breakfast great (waffle maker!!). However I would not possibly stay here again unless I had a car to get around. We were glad to be flying out to Vancouver after 3 nights and 2.5 days in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r102313619-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>102313619</t>
+  </si>
+  <si>
+    <t>03/31/2011</t>
+  </si>
+  <si>
+    <t>Better Than I Expected</t>
+  </si>
+  <si>
+    <t>I drove from Ontario Airport expecting this to be a Best Western.  I thought I'd give it a try.Staff was excellant.The rooms were nicer than I expected for the price, and Hotel Brand.Sheets were clean and crisp.Fridge in Room.Extensive TV Channel selection.Quiet.  My room was next to the Housekeeping storage area, but no excessive noise.Nice work desk with ample electrical outlets.Shopping &amp; food within walking distance,No business center, but a printer is avaiable in the lobby.I have no problems returning here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>EFRAIN O, General Manager at Rodeway Inn Near Stubhub Center, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>I drove from Ontario Airport expecting this to be a Best Western.  I thought I'd give it a try.Staff was excellant.The rooms were nicer than I expected for the price, and Hotel Brand.Sheets were clean and crisp.Fridge in Room.Extensive TV Channel selection.Quiet.  My room was next to the Housekeeping storage area, but no excessive noise.Nice work desk with ample electrical outlets.Shopping &amp; food within walking distance,No business center, but a printer is avaiable in the lobby.I have no problems returning here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r18434024-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>18434024</t>
+  </si>
+  <si>
+    <t>07/30/2008</t>
+  </si>
+  <si>
+    <t>The Rodeway Experience</t>
+  </si>
+  <si>
+    <t>Like their new renovated rooms, the molding and the new texture color makes the rooms look fresher, i never seen a continental breakfast that gives out waffles &amp; hot coco thats a big plus. Michelle and Liz were real nice at check in and check out , had serval minor problems in rooms but were attended right away by managment. Hotel to nice to be a Rodeway, name makes you think less of the hotel than what it really is wich is real nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Like their new renovated rooms, the molding and the new texture color makes the rooms look fresher, i never seen a continental breakfast that gives out waffles &amp; hot coco thats a big plus. Michelle and Liz were real nice at check in and check out , had serval minor problems in rooms but were attended right away by managment. Hotel to nice to be a Rodeway, name makes you think less of the hotel than what it really is wich is real nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r17839826-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>17839826</t>
+  </si>
+  <si>
+    <t>07/13/2008</t>
+  </si>
+  <si>
+    <t>vacation wrecker</t>
+  </si>
+  <si>
+    <t>I booked this hotel according to other peoples' ratings(4stars) which was a big mistake!  This place was definitely 0-stars! The rating of 1 above = "Terrible".
+The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   
+Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  
+The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us...I booked this hotel according to other peoples' ratings(4stars) which was a big mistake!  This place was definitely 0-stars! The rating of 1 above = "Terrible".The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us a key to another room, I reminded him that we wanted rooms that were smoke free, he said they were.  When we got to this room it smelled of cigarettes, but instead of having to move, again, to the second floor which was further away from the rest of our family, we decided to keep the smelly room (wrong choice).  After spending a little time in the room we realized how the carpet was not vacuumed very well.  There were beer bottle caps, food, and make-up applicators on the floor in various places.  Also, there were black foot prints left by the construction people in the tub and on the bathroom floor which I had to clean up, since the hotel seemed to think it was okay to leave their rooms in this unkept manner for their customers.  Next came the discovery of the NEW bed lights that did not work, there were no chairs to sit on yet there was a table and a desk available.  This is not to mention the outsides grounds that could have used a good sweeping.Overall, this part of our vacation wrecked the mood of what had been a terrific time so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel according to other peoples' ratings(4stars) which was a big mistake!  This place was definitely 0-stars! The rating of 1 above = "Terrible".
+The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   
+Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  
+The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us...I booked this hotel according to other peoples' ratings(4stars) which was a big mistake!  This place was definitely 0-stars! The rating of 1 above = "Terrible".The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us a key to another room, I reminded him that we wanted rooms that were smoke free, he said they were.  When we got to this room it smelled of cigarettes, but instead of having to move, again, to the second floor which was further away from the rest of our family, we decided to keep the smelly room (wrong choice).  After spending a little time in the room we realized how the carpet was not vacuumed very well.  There were beer bottle caps, food, and make-up applicators on the floor in various places.  Also, there were black foot prints left by the construction people in the tub and on the bathroom floor which I had to clean up, since the hotel seemed to think it was okay to leave their rooms in this unkept manner for their customers.  Next came the discovery of the NEW bed lights that did not work, there were no chairs to sit on yet there was a table and a desk available.  This is not to mention the outsides grounds that could have used a good sweeping.Overall, this part of our vacation wrecked the mood of what had been a terrific time so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r6705146-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>6705146</t>
+  </si>
+  <si>
+    <t>01/26/2007</t>
+  </si>
+  <si>
+    <t>Another Average Stay</t>
+  </si>
+  <si>
+    <t>This place has a good location overall. Rooms are just about average. It is also clean and neat. Overall nothing memorable and nothing bad either.Probably will not go back though as there are so many other choices in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2003</t>
+  </si>
+  <si>
+    <t>This place has a good location overall. Rooms are just about average. It is also clean and neat. Overall nothing memorable and nothing bad either.Probably will not go back though as there are so many other choices in the area.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1201,1544 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7448</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>LoneTraveler53</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>pumpkyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r447864784-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t>We were just looking for a safe, clean place to stay cheap while we went to Universal Studios, and that's what we got.  Room was clean and actually quite nice. We thought the beds were hard, but they were very nice and the firmness was just a personal preference. The area was mostly quiet. Breakfast was awful - sugary packaged pastries, toast and the standard waffle maker, OJ and coffee.  It would have made a huge difference to have bagels and cereal, but it was free and at least got us on the road. Would probably look somewhere else for a better breakfast, but if that's not what you're interested in, this place was great.More</t>
+  </si>
+  <si>
+    <t>MikeATL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r446093033-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
@@ -243,6 +252,9 @@
    There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its...I stayed in the top floor room in the far back. The front desk guy said it was the quietest room, yet you do get traffic noise even here.    When walking to the room I thought uh oh, way back here and in the very back corner I worried the internet would not work but it works just fine even here.  The room was large, also has a microwave, mini fridge, full size ironing board, iron, and a table and four chairs. Lots of floor space too.   The bed looks like a King, was firm, and I slept well on it.    There is more than enough parking now, but the hotel isnt full.     There is a small pool in back, but its Dec and raining so nobody is there.    Breakfast had coffee, make your own waffles, Orange juice and individually packaged sweet rolls. Nothing else. No eggs, fruit, milk. People were asking for milk for kids but none. Creamer just the powder and only regular sugar.  Diabeticswont find much to eat here.    I dont expect much from cheap hotels, so in that regard I rate this average. No horror stories to report and no dangerous types lurking.  Its in an average area and services and stores and restaurants are located in all directions.   There are 3 parking spots under the 2 rooms over the drive in. So in pending rain or pouring rain try to park there as its by the elevator too.More</t>
   </si>
   <si>
+    <t>Metahuman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r383450319-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>We were two families travelling from IN to LA visiting Disney, Universal Studios and other attractions. This place was almost at the center of both the attractions and hence the choice.The place is cosy - dated to be precise. It has those huge old TV sets and the furniture also seems dated. The first night was good, but the second night was a nightmare! Some one had arranged a party on the floor below us and had loud music all night long. We could also smell weed in the air. We called thrice at the reception to take care of this. To our surprise, the lady said that if we were so disturbed by the sounds, why don't we call 911! The hotel can not take care of all of it's patrons.The good part was a healthy unlimited breakfast.More</t>
   </si>
   <si>
+    <t>Peter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r381578259-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Rochelle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r359056642-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>Stayed two nights at the Rodeway. This is definitely a budget motel. The room was clean. It seemed like there were minor updates made recently. Unfortunately it had a mild lingering smell of cigarette. It's a hard smell to get rid of. The room offered a fridge which was convenient and the breakfast in the morning was enough to get us started for the day. Keep in mind this is a motel and the offerings are simple;  toast, packaged danishes, juice, fresh waffles and fruit. The downside was the other guests. Our neighbors had their television way too loud and kids playing and shouting after midnight, adults talking outside our door. This was both nights so I got almost no sleep.  This was our fourth motel during this trip and the worst because of the noise. For light sleepers it would be better to stay elsewhere. If you sleep like a rock or are a late owl a stay at this motel will be easy on the wallet. More</t>
   </si>
   <si>
+    <t>Y B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r312712163-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -325,6 +346,9 @@
   </si>
   <si>
     <t>September 2015</t>
+  </si>
+  <si>
+    <t>gliceria</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r303924706-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
@@ -354,6 +378,9 @@
 Around 6:40...The location is just less than 5 minutes away  to our business on call contacts which is good.The room has all the amenities needed like refrigerator, microwave tv and kept clean.Upon checking in  at 3PM August 18, There were 2 persons at the desk. My husband and I were the only customers but neither one of them said a word. I have to say "Good afternoon, we are checking in"  I presume, the young girl working on the computer who never bothered to look up, is the receptionist/manager and is training the young man who is standing up who at least smiled and responded to our greetings.. He was told by the girl to give us this form to fill out and when he asked how we are going to pay, I told him that we have already booked and paid by phone.  Then only the girl stopped what she was doing with the computer and checked our reservation and not even looking at us, told the guy to let me sign a form and give the key. She didn't bother to check that we had two reservation for 3 days and sure enough, at 11 AM the following day, August 19, the guy called us that it is time to check out. When I told him that we booked until August 20, leaving on 21st, he told me to come down and sign another paper.Around 6:40 AM on the 21st, Friday, I decided to take advantage of the "free breakfast"  which is a good idea except the apples are old and have rotten spots. and again I have to greet that same girl who has just finished refilling the coffee and going behind the desk. Mind you, this is a very small lobby and there is no way you can miss another person who enters the room. Compared to other Inns and hotesl I have been, this is a very unwelcoming receptionist/ manager. Best way to lose a business. The safety latch is broken and the phone # 308 is not in cornjunction with the room # .309For 2 occupants reservation there was only one tiny bottle of shampoo.More</t>
   </si>
   <si>
+    <t>Hannah C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r298383830-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>I traveled on business, and stayed for two nights. Nice room with comfortable accommodations.  Bed and sheets were clean and comfy. The WiFi worked great and morning coffee and sweet roll was perfect. Staff was friendly.</t>
   </si>
   <si>
+    <t>bridgetmcc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r265508264-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>JHaddad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r237355075-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Denz1908</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r236179196-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>We only stayed here because it's near an examination centre for USMLE. Bad neighborhood, bad rooms, and terrible breakfast. Only serving high sugar junk food. Oh and if you mention it the answer will be this is a "complimentary " breakfast. What sort of an answer is this!Cleanliness: no such thing. The rooms are filthy and the bathroom has a smell of urine all over the place. The sad thing is that I'm not the only one writing about this smell and of course the poor greedy management is not doing anything about it.Bottom line is, don't stay here unless you were on the sidewalk with no other choice or you were suffering from a disease that'll prevent you from smelling all the "aromas" in the air.More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r220376488-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>We had mixed opinions on this hotel.  The biggest issue was the carpet was filthy.  It's the first time I've ever seen carpet so dirty.  I had bought some brand new socks and they were almost black and it didn't come out in the wash.  Yuk!  The reception staff was very nice.  The breakfast area was tiny, with only 3 tables.  And there was no one to keep it clean and orderly.  The floor was all sticky from a spilled drink or food.  Fortunately people got up to give us their table or we would have been eating standing up, which isn't easy to do with young children including a baby.The location was good for Hermosa and Manhattan beaches.  But we made the trip up to Santa Monica and Pasadena and hollywood and was stuck in lots of traffic.  If you're primarily going to the beaches then it's ok but if you want to visit up north I'd get a hotel up north to save 2+ hours of commute each day.There were lots of asian restaurants nearby, korean, vietnamese, etc.  There is a dollar store with groceries just a couple minute walk and the neighborhood was not dangerous (I walked to the store with my daughter at night without any worries).  Overall I'd give the hotel a 3* if the carpet wasn't so dirty.More</t>
   </si>
   <si>
+    <t>Kurt S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r213983249-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t>Just completed a 6 night stay here with a youth sports team in town for the AYSO Nationals soccer. The rooms were clean, free breakfast was a plus especially the waffle makers. The hotel staff were very friendly and the manager bent over backwards to accommodate us. Not only are the rooms very affordable they have some of the best firm mattress beds that I have slept in. Additionally, the location is prime in that you are close to all the attractions in L.A. and the beach is a hop skip and a jump away. Efrain works very hard and the company is lucky to have him managing there property. Thanks Mr. Ovalle and thanks for making a bunch of 9 year old soccer players and their families happy.More</t>
   </si>
   <si>
+    <t>Lark1962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r205728824-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -480,6 +525,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Leo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181734259-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>I had originally stayed at a Comfort inn in the same city. wow talk about a big change. I was so happy I never return to that place, is filthy and with a very strange activities going on there. I accidently came across this hotel(Rodeway Inn). I often travel to the US for business, it is very close to the airport. staffs are always great and willingly helping out any tourist. The exceed expectations. Down side, very poor breakfast, some of the rooms need some remodeling, AND PLEASE PUT SOME FLAT SCREEN TVS come on people invest some Money don't be CHEAP!I still come back , because of the great staffs and reasonable area.More</t>
   </si>
   <si>
+    <t>rosalindjenkins99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181540990-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -534,6 +585,9 @@
     <t>Long time visitor to this hotel.Have always experienced very good service with an extremely friendly and helpful staff.  Quality of rooms has slipped, greatly. Very dark now. Mattress was enclosed in plastic.  How cheap can you get!?!  Makes for very bad sleeping!  Plumbing was absolutely terrible. Plugs in sink and tub did not function  Hot and cold water reversed.  Needs on-site professional to perform some of these things and invest in better decor. Too expensive for plastic on mattress.  Nothing for breakfast but, an assortment of breads, no one shopped! Close to all modes of transportation.CAMERA NOT RETURNED LEFT IN ROOM!!!More</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r181407487-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>Long time visitor to this hotel. Have always experienced very good service with an extremely friendly and helpful staff. Rooms were kept clean and well stocked. Location and access to freeways is very good and the morning breakfast is a welcome addition. Very good value for the cost. Highly recommend to the traveler who wants the basics well provided.More</t>
   </si>
   <si>
+    <t>Eric T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r133725237-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -577,6 +634,9 @@
   </si>
   <si>
     <t>We had a Dr. Appointment in LA and decided to spend the night.  We found the Hotel online and the price was competitive with others in the area.  I was a little concerned that there were no recent reviews, but the reviews were positive.  When we arrived the person at the fron desk was very friendly and helpful.  That was the highpoint of the stay.  The room we booked was listed as 2 queen beds, but the beds were a little small for queen size and were VERY firm.  Each bed had 2 half-size pillows. The carpets in the room were sticky.  Breakfast offerings were toast, waffles, coffee and orange juice.  I would spend an extra $10 to $20 and book something else.More</t>
+  </si>
+  <si>
+    <t>AbbsG</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r115605909-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
@@ -610,6 +670,9 @@
 We'd hoped to head...My hubby and I stayed here in 2010 after having a lot of trouble deciding on LA accommodation, being backpackers we didn't want to spend much.We booked the Rodeway Inn as the reviews generally were quite positive and we thought it looked to be close to the airport. Soooo, it was kinda close to the airport (but still took ages to get there so cost a fair but), but not the city, or public transport! We worked out that the nearest train station was around 3.1 miles (around 5kms) from here so we walked rather than catching a cab (there were supposed to be busses but we didnt see one at all - apparently the busses in Gardena are useless) as we were heading for Disneyland. we caught the train as far as we could and then a bus to Anaheim - around 1.5 hours on the bus! After a great day at Disneyland, a bus and train later we arrived back at the train station and decided to walk back to the hotel. it was dark - so this was a terrible decision, I was sure that we weren't going to make it back alive!! We did though. The next day we caught the train into Hollywood Boulevard and then to Dodgers stadium - great experience, don't miss the baseball! This time we just caught a taxi the whole way back to the Rodeway. We'd hoped to head to Santa Monica or Venice Beach on our last day but it was gonna take much too long to to get there via public transport (2 hours +) and cost too much in a cab, so we just waled around the Gardena area for the morning (not much to see really!). I should also mention that the location wasn't particularly safe, Gardena is next door to Compton ('Boys in the Hood' territory) therefore I really didn't feel safe walking around day or night. I did feel relatively safe at the Hotel though. In summary,the rooms were quite okay, the staff friendly and the breakfast great (waffle maker!!). However I would not possibly stay here again unless I had a car to get around. We were glad to be flying out to Vancouver after 3 nights and 2.5 days in LA.More</t>
   </si>
   <si>
+    <t>JimDavisHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r102313619-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -637,6 +700,9 @@
     <t>I drove from Ontario Airport expecting this to be a Best Western.  I thought I'd give it a try.Staff was excellant.The rooms were nicer than I expected for the price, and Hotel Brand.Sheets were clean and crisp.Fridge in Room.Extensive TV Channel selection.Quiet.  My room was next to the Housekeeping storage area, but no excessive noise.Nice work desk with ample electrical outlets.Shopping &amp; food within walking distance,No business center, but a printer is avaiable in the lobby.I have no problems returning here in the future.More</t>
   </si>
   <si>
+    <t>maribel1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r18434024-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
   </si>
   <si>
@@ -656,6 +722,9 @@
   </si>
   <si>
     <t>Like their new renovated rooms, the molding and the new texture color makes the rooms look fresher, i never seen a continental breakfast that gives out waffles &amp; hot coco thats a big plus. Michelle and Liz were real nice at check in and check out , had serval minor problems in rooms but were attended right away by managment. Hotel to nice to be a Rodeway, name makes you think less of the hotel than what it really is wich is real nice.More</t>
+  </si>
+  <si>
+    <t>me0ne</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r17839826-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
@@ -680,6 +749,9 @@
 The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   
 Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  
 The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us...I booked this hotel according to other peoples' ratings(4stars) which was a big mistake!  This place was definitely 0-stars! The rating of 1 above = "Terrible".The hotel was actually listed under the name "Gardena Plaza Inn", but when we arrived it was listed as a Rodeway Inn.  The clerk, who could have cared less about anything, asked when I booked the rooms, I said less than a week ago, he said it has gone through 10 name changes whithin a short amount of time which explained our and his confusion of the different name.  Apparently, they have not been stable as a reputable business at all.   Since the name was not advertised as such on the internet, I asked to see a room before checking in, the room was nice at first, but the sink, washcloths and coffee maker had debris all over them.  My family and I agreed to stay, but mentioned the debris to the clerk who said that they just had the lights changed.  Apparently they did not clean up after the workers(???), he said all the rooms would be this way anyway...  We proceeded to check into two rooms thinking this was the only concern we had to worry about.  The second room we were given smelled like cat urine and the door was ajar upon arriving to it.  I mentioned this to the clerk , who was not surprised at all.  He gave us a key to another room, I reminded him that we wanted rooms that were smoke free, he said they were.  When we got to this room it smelled of cigarettes, but instead of having to move, again, to the second floor which was further away from the rest of our family, we decided to keep the smelly room (wrong choice).  After spending a little time in the room we realized how the carpet was not vacuumed very well.  There were beer bottle caps, food, and make-up applicators on the floor in various places.  Also, there were black foot prints left by the construction people in the tub and on the bathroom floor which I had to clean up, since the hotel seemed to think it was okay to leave their rooms in this unkept manner for their customers.  Next came the discovery of the NEW bed lights that did not work, there were no chairs to sit on yet there was a table and a desk available.  This is not to mention the outsides grounds that could have used a good sweeping.Overall, this part of our vacation wrecked the mood of what had been a terrific time so far.More</t>
+  </si>
+  <si>
+    <t>Payam81</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d84012-r6705146-Rodeway_Inn_Near_Stubhub_Center-Gardena_California.html</t>
@@ -1205,43 +1277,47 @@
       <c r="A2" t="n">
         <v>7448</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1255,50 +1331,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7448</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1318,50 +1398,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7448</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1381,50 +1465,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7448</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1442,50 +1530,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7448</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1505,50 +1597,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7448</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1562,50 +1658,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7448</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1623,50 +1723,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7448</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1690,50 +1794,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7448</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1747,50 +1855,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7448</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1804,50 +1916,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7448</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1861,41 +1977,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7448</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1924,50 +2044,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7448</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1985,50 +2109,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7448</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2052,50 +2180,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7448</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2119,50 +2251,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7448</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2184,56 +2320,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7448</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2245,56 +2385,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7448</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2316,56 +2460,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7448</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2389,50 +2537,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7448</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2452,50 +2604,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7448</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2517,56 +2673,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7448</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2588,56 +2748,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7448</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2659,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7448</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2730,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X25" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
